--- a/CreateData/ExcelFiles/booking.xlsx
+++ b/CreateData/ExcelFiles/booking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\GitHub\hotel_database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\GitHub\hotel_database\CreateData\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A786E792-9E1E-4EA0-A6E5-199BCD6DCE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C2E74-E48E-4E2C-A564-E8BCAE386EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40755" yWindow="1710" windowWidth="21690" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,10 +922,10 @@
         <v>320</v>
       </c>
       <c r="C15" s="1">
-        <v>44930</v>
+        <v>44934</v>
       </c>
       <c r="D15" s="1">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -958,10 +958,10 @@
         <v>320</v>
       </c>
       <c r="C16" s="1">
-        <v>44930</v>
+        <v>44934</v>
       </c>
       <c r="D16" s="1">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
